--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Thbs1-Cd36.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Thbs1-Cd36.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>142.9073533333333</v>
+        <v>3.075165666666667</v>
       </c>
       <c r="H2">
-        <v>428.72206</v>
+        <v>9.225497000000001</v>
       </c>
       <c r="I2">
-        <v>0.5576664151504187</v>
+        <v>0.02641273658732285</v>
       </c>
       <c r="J2">
-        <v>0.5576664151504188</v>
+        <v>0.02641273658732285</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>181.8232256666666</v>
+        <v>721.1356606666667</v>
       </c>
       <c r="N2">
-        <v>545.4696769999999</v>
+        <v>2163.406982</v>
       </c>
       <c r="O2">
-        <v>0.5898296910336229</v>
+        <v>0.8508208584329936</v>
       </c>
       <c r="P2">
-        <v>0.5898296910336229</v>
+        <v>0.8508208584329936</v>
       </c>
       <c r="Q2">
-        <v>25983.87595455273</v>
+        <v>2217.611624691117</v>
       </c>
       <c r="R2">
-        <v>233854.8835909746</v>
+        <v>19958.50462222005</v>
       </c>
       <c r="S2">
-        <v>0.3289282093479995</v>
+        <v>0.02247250721679056</v>
       </c>
       <c r="T2">
-        <v>0.3289282093479996</v>
+        <v>0.02247250721679056</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>142.9073533333333</v>
+        <v>3.075165666666667</v>
       </c>
       <c r="H3">
-        <v>428.72206</v>
+        <v>9.225497000000001</v>
       </c>
       <c r="I3">
-        <v>0.5576664151504187</v>
+        <v>0.02641273658732285</v>
       </c>
       <c r="J3">
-        <v>0.5576664151504188</v>
+        <v>0.02641273658732285</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>7.10336</v>
       </c>
       <c r="O3">
-        <v>0.007681036748263821</v>
+        <v>0.002793596814304166</v>
       </c>
       <c r="P3">
-        <v>0.007681036748263821</v>
+        <v>0.002793596814304166</v>
       </c>
       <c r="Q3">
-        <v>338.3741257912889</v>
+        <v>7.281336263324445</v>
       </c>
       <c r="R3">
-        <v>3045.3671321216</v>
+        <v>65.53202636992</v>
       </c>
       <c r="S3">
-        <v>0.004283456228042914</v>
+        <v>7.378653678740019E-05</v>
       </c>
       <c r="T3">
-        <v>0.004283456228042915</v>
+        <v>7.378653678740019E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>142.9073533333333</v>
+        <v>3.075165666666667</v>
       </c>
       <c r="H4">
-        <v>428.72206</v>
+        <v>9.225497000000001</v>
       </c>
       <c r="I4">
-        <v>0.5576664151504187</v>
+        <v>0.02641273658732285</v>
       </c>
       <c r="J4">
-        <v>0.5576664151504188</v>
+        <v>0.02641273658732285</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>372.218789</v>
       </c>
       <c r="O4">
-        <v>0.4024892722181133</v>
+        <v>0.1463855447527022</v>
       </c>
       <c r="P4">
-        <v>0.4024892722181133</v>
+        <v>0.1463855447527022</v>
       </c>
       <c r="Q4">
-        <v>17730.93399897615</v>
+        <v>381.5448134736815</v>
       </c>
       <c r="R4">
-        <v>159578.4059907853</v>
+        <v>3433.903321263133</v>
       </c>
       <c r="S4">
-        <v>0.2244547495743762</v>
+        <v>0.003866442833744882</v>
       </c>
       <c r="T4">
-        <v>0.2244547495743763</v>
+        <v>0.003866442833744883</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>191.903427</v>
       </c>
       <c r="I5">
-        <v>0.2496211559306514</v>
+        <v>0.549422396165273</v>
       </c>
       <c r="J5">
-        <v>0.2496211559306514</v>
+        <v>0.5494223961652731</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>181.8232256666666</v>
+        <v>721.1356606666667</v>
       </c>
       <c r="N5">
-        <v>545.4696769999999</v>
+        <v>2163.406982</v>
       </c>
       <c r="O5">
-        <v>0.5898296910336229</v>
+        <v>0.8508208584329936</v>
       </c>
       <c r="P5">
-        <v>0.5898296910336229</v>
+        <v>0.8508208584329936</v>
       </c>
       <c r="Q5">
-        <v>11630.83337120923</v>
+        <v>46129.46820461415</v>
       </c>
       <c r="R5">
-        <v>104677.5003408831</v>
+        <v>415165.2138415273</v>
       </c>
       <c r="S5">
-        <v>0.1472339692780319</v>
+        <v>0.4674600347476499</v>
       </c>
       <c r="T5">
-        <v>0.1472339692780319</v>
+        <v>0.46746003474765</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>191.903427</v>
       </c>
       <c r="I6">
-        <v>0.2496211559306514</v>
+        <v>0.549422396165273</v>
       </c>
       <c r="J6">
-        <v>0.2496211559306514</v>
+        <v>0.5494223961652731</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>7.10336</v>
       </c>
       <c r="O6">
-        <v>0.007681036748263821</v>
+        <v>0.002793596814304166</v>
       </c>
       <c r="P6">
-        <v>0.007681036748263821</v>
+        <v>0.002793596814304166</v>
       </c>
       <c r="Q6">
         <v>151.46212524608</v>
@@ -818,10 +818,10 @@
         <v>1363.15912721472</v>
       </c>
       <c r="S6">
-        <v>0.001917349271847427</v>
+        <v>0.001534864655634668</v>
       </c>
       <c r="T6">
-        <v>0.001917349271847427</v>
+        <v>0.001534864655634668</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>191.903427</v>
       </c>
       <c r="I7">
-        <v>0.2496211559306514</v>
+        <v>0.549422396165273</v>
       </c>
       <c r="J7">
-        <v>0.2496211559306514</v>
+        <v>0.5494223961652731</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>372.218789</v>
       </c>
       <c r="O7">
-        <v>0.4024892722181133</v>
+        <v>0.1463855447527022</v>
       </c>
       <c r="P7">
-        <v>0.4024892722181133</v>
+        <v>0.1463855447527022</v>
       </c>
       <c r="Q7">
         <v>7936.673466987767</v>
@@ -880,10 +880,10 @@
         <v>71430.0612028899</v>
       </c>
       <c r="S7">
-        <v>0.100469837380772</v>
+        <v>0.08042749676198842</v>
       </c>
       <c r="T7">
-        <v>0.100469837380772</v>
+        <v>0.08042749676198846</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>148.15321</v>
       </c>
       <c r="I8">
-        <v>0.1927124289189298</v>
+        <v>0.424164867247404</v>
       </c>
       <c r="J8">
-        <v>0.1927124289189298</v>
+        <v>0.4241648672474041</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>181.8232256666666</v>
+        <v>721.1356606666667</v>
       </c>
       <c r="N8">
-        <v>545.4696769999999</v>
+        <v>2163.406982</v>
       </c>
       <c r="O8">
-        <v>0.5898296910336229</v>
+        <v>0.8508208584329936</v>
       </c>
       <c r="P8">
-        <v>0.5898296910336229</v>
+        <v>0.8508208584329936</v>
       </c>
       <c r="Q8">
-        <v>8979.23151169035</v>
+        <v>35612.85432441247</v>
       </c>
       <c r="R8">
-        <v>80813.08360521316</v>
+        <v>320515.6889197122</v>
       </c>
       <c r="S8">
-        <v>0.1136675124075914</v>
+        <v>0.3608883164685531</v>
       </c>
       <c r="T8">
-        <v>0.1136675124075914</v>
+        <v>0.3608883164685531</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>148.15321</v>
       </c>
       <c r="I9">
-        <v>0.1927124289189298</v>
+        <v>0.424164867247404</v>
       </c>
       <c r="J9">
-        <v>0.1927124289189298</v>
+        <v>0.4241648672474041</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>7.10336</v>
       </c>
       <c r="O9">
-        <v>0.007681036748263821</v>
+        <v>0.002793596814304166</v>
       </c>
       <c r="P9">
-        <v>0.007681036748263821</v>
+        <v>0.002793596814304166</v>
       </c>
       <c r="Q9">
         <v>116.9317317539556</v>
@@ -1004,10 +1004,10 @@
         <v>1052.3855857856</v>
       </c>
       <c r="S9">
-        <v>0.001480231248373479</v>
+        <v>0.001184945621882097</v>
       </c>
       <c r="T9">
-        <v>0.00148023124837348</v>
+        <v>0.001184945621882098</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>148.15321</v>
       </c>
       <c r="I10">
-        <v>0.1927124289189298</v>
+        <v>0.424164867247404</v>
       </c>
       <c r="J10">
-        <v>0.1927124289189298</v>
+        <v>0.4241648672474041</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>372.218789</v>
       </c>
       <c r="O10">
-        <v>0.4024892722181133</v>
+        <v>0.1463855447527022</v>
       </c>
       <c r="P10">
-        <v>0.4024892722181133</v>
+        <v>0.1463855447527022</v>
       </c>
       <c r="Q10">
         <v>6127.267601406966</v>
@@ -1066,10 +1066,10 @@
         <v>55145.40841266269</v>
       </c>
       <c r="S10">
-        <v>0.07756468526296495</v>
+        <v>0.06209160515696883</v>
       </c>
       <c r="T10">
-        <v>0.07756468526296495</v>
+        <v>0.06209160515696886</v>
       </c>
     </row>
   </sheetData>
